--- a/data/trans_bre/CoTrAQ_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R2-Habitat-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.096598248120606</v>
+        <v>-6.230679599809246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.727358453148863</v>
+        <v>-3.24114336896346</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4141789844643538</v>
+        <v>-0.4189217189433162</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1433522294248138</v>
+        <v>-0.1183739063617815</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.565944433191205</v>
+        <v>7.905957075753961</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.30859059431945</v>
+        <v>14.29447646310175</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.7983118327542255</v>
+        <v>0.7856223213127869</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.7321647755769264</v>
+        <v>0.7161593788862084</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.862180100488604</v>
+        <v>-4.264161082985267</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.177129718968144</v>
+        <v>-3.595272948420213</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2412884273830806</v>
+        <v>-0.2500807301023013</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.135686636181102</v>
+        <v>-0.1480138791202856</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.480823262678562</v>
+        <v>7.861000797485107</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.03830761999021</v>
+        <v>9.824586527262969</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6928265296480087</v>
+        <v>0.6567138660337245</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5379601244903749</v>
+        <v>0.5367077823741142</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.862674533100579</v>
+        <v>-2.373187905415469</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.913785782314692</v>
+        <v>-6.248243320026056</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1301399068049267</v>
+        <v>-0.1430980720454453</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1783127405332413</v>
+        <v>-0.1706410338551098</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.37904762819872</v>
+        <v>12.59119261986862</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.798543657860934</v>
+        <v>9.076514475652669</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.081171662462763</v>
+        <v>1.142952187074336</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2883731086291171</v>
+        <v>0.3010335178139105</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.135386359401794</v>
+        <v>0.5844407661351245</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.513865816101109</v>
+        <v>1.599406436967259</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.07220631027759808</v>
+        <v>0.03695125214923736</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.110481362477968</v>
+        <v>0.06200213399845533</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.54582390489</v>
+        <v>12.60465664122263</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.30315564055905</v>
+        <v>14.48604861088492</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.190465268712117</v>
+        <v>1.226653022951498</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9567477181465815</v>
+        <v>0.9124430726766283</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7649707362099373</v>
+        <v>0.4998884853830282</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8650010601221878</v>
+        <v>1.009629421620248</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.05891723059371563</v>
+        <v>0.03054166062031727</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.03220154950605392</v>
+        <v>0.03408692534787582</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.863381059121392</v>
+        <v>6.885989080337532</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.235261710151724</v>
+        <v>8.13399078489109</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.5751701632629073</v>
+        <v>0.5620560237030897</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.368546666515035</v>
+        <v>0.3599870327205021</v>
       </c>
     </row>
     <row r="19">
